--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,18 +17,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670002地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670008地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670041地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>廖述嘉</t>
+  </si>
+  <si>
+    <t>79年05月04日</t>
+  </si>
+  <si>
+    <t>80年06月25日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-10</t>
+  </si>
+  <si>
+    <t>盧秀燕</t>
+  </si>
+  <si>
+    <t>tmp61a71</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽红容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -40,55 +121,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣南投市牛運堀段 0267-0002 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段 0267-0008 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段 0267-0041 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廖述嘉</t>
-  </si>
-  <si>
-    <t>79年05月 04日</t>
-  </si>
-  <si>
-    <t>80年06月 25日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽红容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
     <t>國瑞</t>
   </si>
   <si>
-    <t>盧秀燕</t>
-  </si>
-  <si>
-    <t>99年02月 06日</t>
-  </si>
-  <si>
-    <t>99年08月 16日</t>
+    <t>99年02月06日</t>
+  </si>
+  <si>
+    <t>99年08月16日</t>
   </si>
   <si>
     <t>買賣</t>
@@ -109,16 +151,16 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行中權分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中 正路郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中港分 行</t>
+    <t>合作金庫商業銀行中權分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中正路郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中港分行</t>
   </si>
   <si>
     <t>玉山商業銀行文心分行</t>
@@ -127,13 +169,13 @@
     <t>第一商業銀行台中分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司健 行路郵局</t>
+    <t>中華郵政股份有限公司健行路郵局</t>
   </si>
   <si>
     <t>三信商業銀行進化分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行台中分 行</t>
+    <t>台北富邦商業銀行台中分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -145,7 +187,7 @@
     <t>支票存款</t>
   </si>
   <si>
-    <t>活期儲蓄存款 »</t>
+    <t>活期儲蓄存款»</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -163,7 +205,7 @@
     <t>廖〇桐</t>
   </si>
   <si>
-    <t>1,000’000</t>
+    <t>1000000</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -199,28 +241,28 @@
     <t>得意人生終身保險</t>
   </si>
   <si>
-    <t>保險期間:95/1/8-117/1/8(22 年)、年繳保費71,400</t>
-  </si>
-  <si>
-    <t>保險期間:92/6-102/5(10 年）、 年繳保費103,431</t>
-  </si>
-  <si>
-    <t>保險期間:92/6-102/5(10 年）、 年繳保費102,559</t>
-  </si>
-  <si>
-    <t>保險期間:"/8/24-10S/8/24(6 年} '年繳保費159,588</t>
-  </si>
-  <si>
-    <t>保險期間:91/12/30-101/12/30 (10年）、年繳保費70,309</t>
-  </si>
-  <si>
-    <t>保險期間:91/12/30-101/12/30 (10年）、年繳保費73,185</t>
-  </si>
-  <si>
-    <t>保險期間:91/12/30-101/12/30 (10年）、年繳保費73,234</t>
-  </si>
-  <si>
-    <t>保險期間:91/12/30-101/12/30 (10 m、年繳保費70,357</t>
+    <t>保險期間:951811718(22年)年繳保費71400</t>
+  </si>
+  <si>
+    <t>保險期間:9261025(10年）年繳保費103431</t>
+  </si>
+  <si>
+    <t>保險期間:9261025(10年）年繳保費102559</t>
+  </si>
+  <si>
+    <t>保險期間:"82410S824(6年}年繳保費159588</t>
+  </si>
+  <si>
+    <t>保險期間:9112301011230(10年）年繳保費70309</t>
+  </si>
+  <si>
+    <t>保險期間:9112301011230(10年）年繳保費73185</t>
+  </si>
+  <si>
+    <t>保險期間:9112301011230(10年）年繳保費73234</t>
+  </si>
+  <si>
+    <t>保險期間:9112301011230(10m年繳保費70357</t>
   </si>
 </sst>
 </file>
@@ -579,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,83 +649,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>325</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>869</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>869</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>869</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,22 +827,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -724,19 +850,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
@@ -747,19 +873,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
@@ -780,19 +906,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -800,16 +926,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>5353477</v>
@@ -820,16 +946,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>2000000</v>
@@ -840,16 +966,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>167062</v>
@@ -860,16 +986,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>221882</v>
@@ -880,16 +1006,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2">
         <v>155097</v>
@@ -900,16 +1026,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -920,16 +1046,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2">
         <v>831898</v>
@@ -940,16 +1066,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -960,16 +1086,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2">
         <v>283695</v>
@@ -980,19 +1106,19 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1000,16 +1126,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
         <v>45434</v>
@@ -1020,16 +1146,16 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>95319</v>
@@ -1040,16 +1166,16 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
         <v>44158</v>
@@ -1060,16 +1186,16 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>74446</v>
@@ -1080,16 +1206,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
         <v>1100790</v>
@@ -1100,16 +1226,16 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
         <v>211626</v>
@@ -1130,16 +1256,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1147,16 +1273,16 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1164,16 +1290,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1181,16 +1307,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1198,16 +1324,16 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1215,16 +1341,16 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1232,16 +1358,16 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1249,16 +1375,16 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1266,16 +1392,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣南投市牛運堀段02670002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣南投市牛運堀段02670008地號</t>
@@ -76,9 +79,6 @@
     <t>廖述嘉</t>
   </si>
   <si>
-    <t>79年05月04日</t>
-  </si>
-  <si>
     <t>80年06月25日</t>
   </si>
   <si>
@@ -103,54 +103,30 @@
     <t>tmp61a71</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽红容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
+    <t>99年02月06日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>國瑞</t>
   </si>
   <si>
-    <t>99年02月06日</t>
-  </si>
-  <si>
     <t>99年08月16日</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行中權分行</t>
   </si>
   <si>
@@ -178,9 +154,6 @@
     <t>台北富邦商業銀行台中分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>廖〇青</t>
   </si>
   <si>
@@ -208,30 +178,21 @@
     <t>1000000</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>子女教育保險</t>
+  </si>
+  <si>
+    <t>保險期間:951811718(22年)年繳保費71400</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>中國人壽</t>
   </si>
   <si>
-    <t>子女教育保險</t>
-  </si>
-  <si>
     <t>十年快樂兒童還本終身壽險</t>
   </si>
   <si>
@@ -239,9 +200,6 @@
   </si>
   <si>
     <t>得意人生終身保險</t>
-  </si>
-  <si>
-    <t>保險期間:951811718(22年)年繳保費71400</t>
   </si>
   <si>
     <t>保險期間:9261025(10年）年繳保費103431</t>
@@ -621,13 +579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,25 +628,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -715,24 +679,30 @@
         <v>27</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -762,54 +732,13 @@
         <v>27</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2">
-        <v>869</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,65 +758,42 @@
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>2497</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
+      <c r="G1" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2497</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2">
         <v>50000</v>
       </c>
     </row>
@@ -898,7 +804,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -906,338 +812,318 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5353477</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>5353477</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2">
-        <v>2000000</v>
+        <v>167062</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>167062</v>
+        <v>221882</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2">
-        <v>221882</v>
+        <v>155097</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2">
-        <v>155097</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
-        <v>3531</v>
+        <v>831898</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2">
-        <v>831898</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>840000</v>
+        <v>283695</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2">
-        <v>283695</v>
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45434</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>45434</v>
+        <v>95319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>95319</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
-        <v>44158</v>
+        <v>74446</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>74446</v>
+        <v>1100790</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
-        <v>1100790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2">
         <v>211626</v>
       </c>
     </row>
@@ -1248,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1256,152 +1142,135 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣南投市牛運堀段02670002地號</t>
+  </si>
+  <si>
     <t>南投縣南投市牛運堀段02670008地號</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>廖述嘉</t>
+  </si>
+  <si>
+    <t>79年05月04日</t>
   </si>
   <si>
     <t>80年06月25日</t>
@@ -579,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,107 +643,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>869</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>869</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>869</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -748,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,19 +815,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>2497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1">
         <v>100000</v>
@@ -776,24 +835,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2497</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
         <v>1998</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>50000</v>
       </c>
     </row>
@@ -804,7 +886,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,16 +894,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1">
         <v>5353477</v>
@@ -829,301 +911,321 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
-        <v>2000000</v>
+        <v>5353477</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
-        <v>167062</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
-        <v>221882</v>
+        <v>167062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
-        <v>155097</v>
+        <v>221882</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2">
-        <v>3531</v>
+        <v>155097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2">
-        <v>831898</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
-        <v>840000</v>
+        <v>831898</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2">
-        <v>283695</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="F10" s="2">
+        <v>283695</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45434</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2">
-        <v>95319</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>44158</v>
+        <v>95319</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>74446</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
-        <v>1100790</v>
+        <v>74446</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1100790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>63</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
         <v>211626</v>
       </c>
     </row>
@@ -1134,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1142,135 +1244,152 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>100</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -109,19 +109,22 @@
     <t>tmp61a71</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
+    <t>國瑞</t>
+  </si>
+  <si>
     <t>99年02月06日</t>
   </si>
   <si>
+    <t>99年08月16日</t>
+  </si>
+  <si>
     <t>買賣</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>99年08月16日</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -807,38 +810,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>2497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -847,21 +871,42 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>869</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -873,10 +918,31 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>869</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -894,13 +960,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -914,13 +980,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -934,13 +1000,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -954,13 +1020,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -974,13 +1040,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -994,16 +1060,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>155097</v>
@@ -1014,16 +1080,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -1034,16 +1100,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>831898</v>
@@ -1054,16 +1120,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -1074,16 +1140,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2">
         <v>283695</v>
@@ -1094,19 +1160,19 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1114,16 +1180,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2">
         <v>45434</v>
@@ -1134,13 +1200,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1154,13 +1220,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1174,13 +1240,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1194,13 +1260,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1214,13 +1280,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1244,16 +1310,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1261,16 +1327,16 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1278,16 +1344,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1295,16 +1361,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1312,16 +1378,16 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1329,16 +1395,16 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1346,16 +1412,16 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1363,16 +1429,16 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1380,16 +1446,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -880,7 +883,7 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -924,7 +927,7 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -960,13 +963,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -980,13 +983,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1000,13 +1003,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1020,13 +1023,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1040,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -1060,16 +1063,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2">
         <v>155097</v>
@@ -1080,16 +1083,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -1100,16 +1103,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2">
         <v>831898</v>
@@ -1120,16 +1123,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -1140,16 +1143,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2">
         <v>283695</v>
@@ -1160,19 +1163,19 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1180,16 +1183,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2">
         <v>45434</v>
@@ -1200,13 +1203,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1220,13 +1223,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1240,13 +1243,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1260,13 +1263,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1280,13 +1283,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1310,16 +1313,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1327,16 +1330,16 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1344,16 +1347,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1361,16 +1364,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1378,16 +1381,16 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1395,16 +1398,16 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1412,16 +1415,16 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1429,16 +1432,16 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1446,16 +1449,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -130,54 +130,63 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行中權分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中正路郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中港分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行台中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司健行路郵局</t>
+  </si>
+  <si>
+    <t>三信商業銀行進化分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行台中分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款»</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行中權分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中正路郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中港分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行文心分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行台中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司健行路郵局</t>
-  </si>
-  <si>
-    <t>三信商業銀行進化分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行台中分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款»</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>廖〇青</t>
   </si>
   <si>
@@ -187,7 +196,7 @@
     <t>廖〇桐</t>
   </si>
   <si>
-    <t>1000000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -955,13 +964,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -972,24 +981,45 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5353477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -997,19 +1027,40 @@
       <c r="F2" s="2">
         <v>5353477</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>869</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1017,19 +1068,40 @@
       <c r="F3" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>869</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1037,19 +1109,40 @@
       <c r="F4" s="2">
         <v>167062</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>869</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -1057,159 +1150,327 @@
       <c r="F5" s="2">
         <v>221882</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>869</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>155097</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>869</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>869</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2">
         <v>831898</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>869</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>869</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
         <v>283695</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>869</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>869</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2">
         <v>45434</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>869</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1217,19 +1478,40 @@
       <c r="F13" s="2">
         <v>95319</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>869</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1237,19 +1519,40 @@
       <c r="F14" s="2">
         <v>44158</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2">
+        <v>869</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1257,19 +1560,40 @@
       <c r="F15" s="2">
         <v>74446</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2">
+        <v>869</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1277,25 +1601,67 @@
       <c r="F16" s="2">
         <v>1100790</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2">
+        <v>869</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>211626</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2">
+        <v>869</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1313,16 +1679,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1330,16 +1696,16 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1347,16 +1713,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1364,16 +1730,16 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1381,16 +1747,16 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1398,16 +1764,16 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1415,16 +1781,16 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1432,16 +1798,16 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1449,16 +1815,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2012-02-10_財產申報表_tmp61a71.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -199,21 +199,21 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>子女教育保險</t>
   </si>
   <si>
-    <t>保險期間:951811718(22年)年繳保費71400</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>十年快樂兒童還本終身壽險</t>
   </si>
   <si>
@@ -223,25 +223,7 @@
     <t>得意人生終身保險</t>
   </si>
   <si>
-    <t>保險期間:9261025(10年）年繳保費103431</t>
-  </si>
-  <si>
-    <t>保險期間:9261025(10年）年繳保費102559</t>
-  </si>
-  <si>
-    <t>保險期間:"82410S824(6年}年繳保費159588</t>
-  </si>
-  <si>
-    <t>保險期間:9112301011230(10年）年繳保費70309</t>
-  </si>
-  <si>
-    <t>保險期間:9112301011230(10年）年繳保費73185</t>
-  </si>
-  <si>
-    <t>保險期間:9112301011230(10年）年繳保費73234</t>
-  </si>
-  <si>
-    <t>保險期間:9112301011230(10m年繳保費70357</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1671,49 +1653,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>869</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
@@ -1724,13 +1742,31 @@
       <c r="E3" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>869</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>65</v>
@@ -1739,15 +1775,33 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>869</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>66</v>
@@ -1756,15 +1810,33 @@
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>869</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
@@ -1773,15 +1845,33 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
+        <v>869</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
@@ -1790,15 +1880,33 @@
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>869</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
@@ -1807,15 +1915,33 @@
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>869</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
@@ -1824,7 +1950,25 @@
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2">
+        <v>869</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
